--- a/biology/Zoologie/Belenois/Belenois.xlsx
+++ b/biology/Zoologie/Belenois/Belenois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Belenois regroupe des lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-L'espèce type est Papilio calypso (Drury)
-Synonymie
-Anaphaeis (Hübner, 1819)[2]
-Glycestha (Billberg, 182)0[3]
-Pseudohuphina (Stoneham, 1940)[4]
-Pseudanaphaeis (Bernardi, 1953)[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+L'espèce type est Papilio calypso (Drury)</t>
         </is>
       </c>
     </row>
@@ -544,10 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anaphaeis (Hübner, 1819)
+Glycestha (Billberg, 182)0
+Pseudohuphina (Stoneham, 1940)
+Pseudanaphaeis (Bernardi, 1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Belenois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belenois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces :
 Belenois aldabrensis Holland, 1896.
@@ -592,7 +642,7 @@
 Belenois margaritacea plutonica (Joicey &amp; Talbot, 1927) dans le Nord de la Tanzanie.
 Belenois margaritacea somereni (Talbot, 1928) au Kenya.
 Belenois ogygia (Trimen, 1883) au Natal.
-Belenois raffrayi (Oberthür, 1878)[6] Éthiopie, Soudan, ex-Zaïre, Rwanda, ouest de la Tanzanie et du Kenya.
+Belenois raffrayi (Oberthür, 1878) Éthiopie, Soudan, ex-Zaïre, Rwanda, ouest de la Tanzanie et du Kenya.
 Belenois raffrayi raffrayi sud de l'Éthiopie et du Soudan.
 Belenois raffrayi extendens (Joicey &amp; Talbot, 1927) Ouganda, Rwanda, Burundi, Ouest du Kenya et est du Zaïre.
 Belenois raffrayi similis Kielland, 1978 dans l'ouest de la Tanzanie.
